--- a/examples/analytical/POC1G/model_config.POC1G.xlsx
+++ b/examples/analytical/POC1G/model_config.POC1G.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16056" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -785,7 +785,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -904,13 +904,13 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.89453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.68359375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.05078125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.3125" bestFit="1" customWidth="1"/>
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2438,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/examples/analytical/POC1G/model_config.POC1G.xlsx
+++ b/examples/analytical/POC1G/model_config.POC1G.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16056" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16054" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="parameters" sheetId="17" r:id="rId5"/>
     <sheet name="data" sheetId="19" r:id="rId6"/>
     <sheet name="output" sheetId="18" r:id="rId7"/>
+    <sheet name="diffusion" sheetId="21" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">data!$B$1:$B$3296</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="93">
   <si>
     <t>type</t>
   </si>
@@ -64,9 +65,6 @@
     <t>substance</t>
   </si>
   <si>
-    <t>species_modelled</t>
-  </si>
-  <si>
     <t>Omega</t>
   </si>
   <si>
@@ -314,25 +312,28 @@
   </si>
   <si>
     <t>analytical</t>
+  </si>
+  <si>
+    <t>SedTrace_name</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>formula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -410,18 +411,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -430,9 +430,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -718,23 +718,23 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.20703125" style="1"/>
+    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>10</v>
+    <row r="1" spans="1:7" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -742,20 +742,20 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -765,16 +765,16 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="F2" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -788,22 +788,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83984375" customWidth="1"/>
-    <col min="3" max="3" width="5.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.84375" customWidth="1"/>
+    <col min="3" max="3" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -815,25 +815,25 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="5"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -849,50 +849,50 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.05078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.41796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.05078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>70</v>
+      <c r="E1" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="4"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -901,136 +901,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.05078125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.921875" customWidth="1"/>
+    <col min="4" max="4" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="6"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="6"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="6"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="6"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="6"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="6"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="6"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="6"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="6"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="6"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="6"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="6"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="6"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="6"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="6"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D6" s="3"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D15" s="5"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D16" s="5"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D20" s="5"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D21" s="5"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D22" s="5"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D23" s="5"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D24" s="5"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D25" s="5"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D26" s="5"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D27" s="5"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D28" s="5"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D29" s="5"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1046,361 +1050,361 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.20703125" style="4"/>
-    <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.89453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="181.734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.20703125" style="4"/>
+    <col min="1" max="1" width="9.23046875" style="3"/>
+    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="181.765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5">
+        <v>500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5">
+        <v>500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="E7" s="5">
+        <v>500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6">
-        <v>500</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6">
-        <v>500</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>500</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>56</v>
+      <c r="D9" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0.8</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>53</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0.8</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="13">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
         <v>85</v>
       </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="10">
+        <v>70</v>
+      </c>
+      <c r="E15" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>88</v>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1417,37 +1421,37 @@
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1457,15 +1461,15 @@
         <v>1.3846153846153846</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1475,15 +1479,15 @@
         <v>1.1749783166920582</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1493,15 +1497,15 @@
         <v>0.99708125450302965</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1511,15 +1515,15 @@
         <v>0.8461186167930711</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -1529,15 +1533,15 @@
         <v>0.71801240916985321</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -1547,15 +1551,15 @@
         <v>0.60930206414306931</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -1565,15 +1569,15 @@
         <v>0.51705095988275884</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -1583,15 +1587,15 @@
         <v>0.43876709246287449</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>80</v>
@@ -1601,15 +1605,15 @@
         <v>0.37233575868803664</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>90</v>
@@ -1619,15 +1623,15 @@
         <v>0.31596243104654931</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1637,15 +1641,15 @@
         <v>0.26812428165539248</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>110</v>
@@ -1655,15 +1659,15 @@
         <v>0.22752904570046467</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>120</v>
@@ -1673,15 +1677,15 @@
         <v>0.19308011313910395</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>130</v>
@@ -1691,15 +1695,15 @@
         <v>0.16384690567764743</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>140</v>
@@ -1709,15 +1713,15 @@
         <v>0.13903973880934556</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>150</v>
@@ -1727,15 +1731,15 @@
         <v>0.11798848985408932</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>160</v>
@@ -1745,15 +1749,15 @@
         <v>0.10012449575396369</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>170</v>
@@ -1763,15 +1767,15 @@
         <v>8.4965191624901876E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>180</v>
@@ -1781,15 +1785,15 @@
         <v>7.2101075101499448E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>190</v>
@@ -1799,15 +1803,15 @@
         <v>6.1184644339323191E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -1817,15 +1821,15 @@
         <v>5.192101085399238E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>210</v>
@@ -1835,15 +1839,15 @@
         <v>4.4059933619125705E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>220</v>
@@ -1853,15 +1857,15 @@
         <v>3.738905923809633E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>230</v>
@@ -1871,15 +1875,15 @@
         <v>3.1728185584534163E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>240</v>
@@ -1889,15 +1893,15 @@
         <v>2.6924393953751076E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>250</v>
@@ -1907,15 +1911,15 @@
         <v>2.28479182285844E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>260</v>
@@ -1925,15 +1929,15 @@
         <v>1.938863947232327E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29">
         <v>270</v>
@@ -1943,15 +1947,15 @@
         <v>1.6453111256211912E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>280</v>
@@ -1961,15 +1965,15 @@
         <v>1.3962035365901303E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>290</v>
@@ -1979,15 +1983,15 @@
         <v>1.1848119697426777E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <v>300</v>
@@ -1997,15 +2001,15 @@
         <v>1.0054260477479503E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <v>310</v>
@@ -2015,15 +2019,15 @@
         <v>8.5319997037978067E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34">
         <v>320</v>
@@ -2033,15 +2037,15 @@
         <v>7.2402161361006332E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <v>330</v>
@@ -2051,15 +2055,15 @@
         <v>6.1440144769482532E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36">
         <v>340</v>
@@ -2069,15 +2073,15 @@
         <v>5.2137827356739923E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37">
         <v>350</v>
@@ -2087,15 +2091,15 @@
         <v>4.4243923117046899E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38">
         <v>360</v>
@@ -2105,15 +2109,15 @@
         <v>3.7545191889053796E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <v>370</v>
@@ -2123,15 +2127,15 @@
         <v>3.1860679041880524E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40">
         <v>380</v>
@@ -2141,15 +2145,15 @@
         <v>2.7036827298935078E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41">
         <v>390</v>
@@ -2159,15 +2163,15 @@
         <v>2.2943328653841993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>400</v>
@@ -2177,15 +2181,15 @@
         <v>1.9469604325169517E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>410</v>
@@ -2195,15 +2199,15 @@
         <v>1.6521817662023615E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <v>420</v>
@@ -2213,15 +2217,15 @@
         <v>1.4020339309323848E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>430</v>
@@ -2231,15 +2235,15 @@
         <v>1.1897596158587261E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46">
         <v>440</v>
@@ -2249,15 +2253,15 @@
         <v>1.0096245977349104E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47">
         <v>450</v>
@@ -2267,15 +2271,15 @@
         <v>8.5676284079927738E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48">
         <v>460</v>
@@ -2285,15 +2289,15 @@
         <v>7.270450492403522E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>470</v>
@@ -2303,15 +2307,15 @@
         <v>6.1696712141691109E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>480</v>
@@ -2321,15 +2325,15 @@
         <v>5.2355549261656861E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>490</v>
@@ -2339,15 +2343,15 @@
         <v>4.4428680935130322E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <v>500</v>
@@ -2357,15 +2361,15 @@
         <v>3.7701976533005739E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53">
         <v>510</v>
@@ -2375,15 +2379,15 @@
         <v>3.1993725777516114E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54">
         <v>520</v>
@@ -2393,15 +2397,15 @@
         <v>2.7149730153558409E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>530</v>
@@ -2411,15 +2415,15 @@
         <v>2.3039137502673976E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>540</v>
@@ -2438,89 +2442,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="16"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples/analytical/POC1G/model_config.POC1G.xlsx
+++ b/examples/analytical/POC1G/model_config.POC1G.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16054" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16056" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>g cm^-2 yr^-1</t>
   </si>
   <si>
-    <t>return a depth-dependent bioturbation profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
     <t>phi_Inf</t>
   </si>
   <si>
@@ -284,18 +281,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>return a non-uniform grid by transforming a uniform one, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
-    <t>return a depth-dependent porosity profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
-    <t>porosity at infinite sediment depth (normally where porosity stops changing). Needed to calculate burial velocities. If constant_porosity_profile = no, then phi_Inf should be consistent with the depth dependent porosity function</t>
-  </si>
-  <si>
-    <t>return a depth-dependent bioirrigation profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
     <t>mmol cm^-3</t>
   </si>
   <si>
@@ -321,6 +306,21 @@
   </si>
   <si>
     <t>formula</t>
+  </si>
+  <si>
+    <t>grid transformation function</t>
+  </si>
+  <si>
+    <t>porosity as a function of depth</t>
+  </si>
+  <si>
+    <t>porosity at burial depth</t>
+  </si>
+  <si>
+    <t>bioburbation coefficient as a function of depth</t>
+  </si>
+  <si>
+    <t>bioirrigation coefficient as a function of depth</t>
   </si>
 </sst>
 </file>
@@ -721,18 +721,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="1"/>
+    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>39</v>
@@ -752,10 +752,10 @@
         <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -788,22 +788,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.84375" customWidth="1"/>
-    <col min="3" max="3" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83984375" customWidth="1"/>
+    <col min="3" max="3" width="5.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -818,21 +818,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="4"/>
     </row>
   </sheetData>
@@ -849,18 +849,18 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.05078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -868,16 +868,16 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
         <v>39</v>
@@ -886,11 +886,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
     </row>
@@ -903,29 +903,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.921875" customWidth="1"/>
-    <col min="4" max="4" width="7.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.07421875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.89453125" customWidth="1"/>
+    <col min="4" max="4" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.05078125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -937,103 +937,103 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="3"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="3"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="3"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="3"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="5"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="5"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="5"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="5"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="5"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="5"/>
     </row>
   </sheetData>
@@ -1044,25 +1044,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I3" sqref="I1:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="3"/>
+    <col min="1" max="1" width="9.20703125" style="3"/>
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.734375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="181.765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="3"/>
+    <col min="5" max="5" width="11.83984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.89453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.9453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.20703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1084,8 +1084,15 @@
       <c r="G1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1107,8 +1114,15 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1130,8 +1144,15 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1153,8 +1174,15 @@
       <c r="G4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1176,8 +1204,15 @@
       <c r="G5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1199,8 +1234,15 @@
       <c r="G6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1222,8 +1264,15 @@
       <c r="G7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1234,19 +1283,26 @@
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1257,19 +1313,20 @@
         <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>0.8</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1280,19 +1337,20 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0.8</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1314,8 +1372,15 @@
       <c r="G11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1332,13 +1397,20 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1358,44 +1430,58 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="9">
         <v>5.0000000000000001E-3</v>
@@ -1404,8 +1490,15 @@
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1421,11 +1514,11 @@
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1440,18 +1533,18 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1461,15 +1554,15 @@
         <v>1.3846153846153846</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1479,15 +1572,15 @@
         <v>1.1749783166920582</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1497,15 +1590,15 @@
         <v>0.99708125450302965</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1515,15 +1608,15 @@
         <v>0.8461186167930711</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -1533,15 +1626,15 @@
         <v>0.71801240916985321</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -1551,15 +1644,15 @@
         <v>0.60930206414306931</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -1569,15 +1662,15 @@
         <v>0.51705095988275884</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>70</v>
@@ -1587,15 +1680,15 @@
         <v>0.43876709246287449</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>80</v>
@@ -1605,15 +1698,15 @@
         <v>0.37233575868803664</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>90</v>
@@ -1623,15 +1716,15 @@
         <v>0.31596243104654931</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1641,15 +1734,15 @@
         <v>0.26812428165539248</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>110</v>
@@ -1659,15 +1752,15 @@
         <v>0.22752904570046467</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>120</v>
@@ -1677,15 +1770,15 @@
         <v>0.19308011313910395</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>130</v>
@@ -1695,15 +1788,15 @@
         <v>0.16384690567764743</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>140</v>
@@ -1713,15 +1806,15 @@
         <v>0.13903973880934556</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>150</v>
@@ -1731,15 +1824,15 @@
         <v>0.11798848985408932</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>160</v>
@@ -1749,15 +1842,15 @@
         <v>0.10012449575396369</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>170</v>
@@ -1767,15 +1860,15 @@
         <v>8.4965191624901876E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>180</v>
@@ -1785,15 +1878,15 @@
         <v>7.2101075101499448E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>190</v>
@@ -1803,15 +1896,15 @@
         <v>6.1184644339323191E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -1821,15 +1914,15 @@
         <v>5.192101085399238E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>210</v>
@@ -1839,15 +1932,15 @@
         <v>4.4059933619125705E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>220</v>
@@ -1857,15 +1950,15 @@
         <v>3.738905923809633E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>230</v>
@@ -1875,15 +1968,15 @@
         <v>3.1728185584534163E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>240</v>
@@ -1893,15 +1986,15 @@
         <v>2.6924393953751076E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>250</v>
@@ -1911,15 +2004,15 @@
         <v>2.28479182285844E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>260</v>
@@ -1929,15 +2022,15 @@
         <v>1.938863947232327E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>270</v>
@@ -1947,15 +2040,15 @@
         <v>1.6453111256211912E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>280</v>
@@ -1965,15 +2058,15 @@
         <v>1.3962035365901303E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>290</v>
@@ -1983,15 +2076,15 @@
         <v>1.1848119697426777E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>300</v>
@@ -2001,15 +2094,15 @@
         <v>1.0054260477479503E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>310</v>
@@ -2019,15 +2112,15 @@
         <v>8.5319997037978067E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>320</v>
@@ -2037,15 +2130,15 @@
         <v>7.2402161361006332E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <v>330</v>
@@ -2055,15 +2148,15 @@
         <v>6.1440144769482532E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>340</v>
@@ -2073,15 +2166,15 @@
         <v>5.2137827356739923E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37">
         <v>350</v>
@@ -2091,15 +2184,15 @@
         <v>4.4243923117046899E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38">
         <v>360</v>
@@ -2109,15 +2202,15 @@
         <v>3.7545191889053796E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <v>370</v>
@@ -2127,15 +2220,15 @@
         <v>3.1860679041880524E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <v>380</v>
@@ -2145,15 +2238,15 @@
         <v>2.7036827298935078E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>390</v>
@@ -2163,15 +2256,15 @@
         <v>2.2943328653841993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>400</v>
@@ -2181,15 +2274,15 @@
         <v>1.9469604325169517E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>410</v>
@@ -2199,15 +2292,15 @@
         <v>1.6521817662023615E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>420</v>
@@ -2217,15 +2310,15 @@
         <v>1.4020339309323848E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <v>430</v>
@@ -2235,15 +2328,15 @@
         <v>1.1897596158587261E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46">
         <v>440</v>
@@ -2253,15 +2346,15 @@
         <v>1.0096245977349104E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <v>450</v>
@@ -2271,15 +2364,15 @@
         <v>8.5676284079927738E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>460</v>
@@ -2289,15 +2382,15 @@
         <v>7.270450492403522E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>470</v>
@@ -2307,15 +2400,15 @@
         <v>6.1696712141691109E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>480</v>
@@ -2325,15 +2418,15 @@
         <v>5.2355549261656861E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51">
         <v>490</v>
@@ -2343,15 +2436,15 @@
         <v>4.4428680935130322E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>500</v>
@@ -2361,15 +2454,15 @@
         <v>3.7701976533005739E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>510</v>
@@ -2379,15 +2472,15 @@
         <v>3.1993725777516114E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <v>520</v>
@@ -2397,15 +2490,15 @@
         <v>2.7149730153558409E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>530</v>
@@ -2415,15 +2508,15 @@
         <v>2.3039137502673976E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56">
         <v>540</v>
@@ -2446,53 +2539,53 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.62890625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.89453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2500,27 +2593,27 @@
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="15"/>
     </row>
   </sheetData>
@@ -2537,14 +2630,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/POC1G/model_config.POC1G.xlsx
+++ b/examples/analytical/POC1G/model_config.POC1G.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16056" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16054" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="94">
   <si>
     <t>type</t>
   </si>
@@ -218,122 +218,131 @@
     <t>name</t>
   </si>
   <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>conversion_profile</t>
+  </si>
+  <si>
+    <t>unit_profile</t>
+  </si>
+  <si>
+    <t>flux_top</t>
+  </si>
+  <si>
+    <t>conversion_flux</t>
+  </si>
+  <si>
+    <t>unit_flux</t>
+  </si>
+  <si>
+    <t>flux_top_measured</t>
+  </si>
+  <si>
+    <t>bioirrigation_scale</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>k_POC</t>
+  </si>
+  <si>
+    <t>RPOC</t>
+  </si>
+  <si>
+    <t>k_POC*POC</t>
+  </si>
+  <si>
+    <t>POC0</t>
+  </si>
+  <si>
+    <t>cm^2/yr</t>
+  </si>
+  <si>
+    <t>dissolved</t>
+  </si>
+  <si>
+    <t>adsorbed</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>gridtran</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>mmol cm^-3</t>
+  </si>
+  <si>
+    <t>Concentration of POC at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>kinetic rate of POC oxidation</t>
+  </si>
+  <si>
+    <t>POC = DIC</t>
+  </si>
+  <si>
+    <t>analytical</t>
+  </si>
+  <si>
+    <t>SedTrace_name</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>grid transformation function</t>
+  </si>
+  <si>
+    <t>porosity as a function of depth</t>
+  </si>
+  <si>
+    <t>porosity at burial depth</t>
+  </si>
+  <si>
+    <t>bioburbation coefficient as a function of depth</t>
+  </si>
+  <si>
+    <t>bioirrigation coefficient as a function of depth</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>12/ds_rho/10</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>conversion_profile</t>
-  </si>
-  <si>
-    <t>unit_profile</t>
-  </si>
-  <si>
-    <t>flux_top</t>
-  </si>
-  <si>
-    <t>conversion_flux</t>
-  </si>
-  <si>
-    <t>unit_flux</t>
-  </si>
-  <si>
-    <t>flux_top_measured</t>
-  </si>
-  <si>
-    <t>bioirrigation_scale</t>
-  </si>
-  <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>k_POC</t>
-  </si>
-  <si>
-    <t>RPOC</t>
-  </si>
-  <si>
-    <t>k_POC*POC</t>
-  </si>
-  <si>
-    <t>POC0</t>
-  </si>
-  <si>
-    <t>cm^2/yr</t>
-  </si>
-  <si>
-    <t>dissolved</t>
-  </si>
-  <si>
-    <t>adsorbed</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>gridtran</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>mmol cm^-3</t>
-  </si>
-  <si>
-    <t>Concentration of POC at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>kinetic rate of POC oxidation</t>
-  </si>
-  <si>
-    <t>POC = DIC</t>
-  </si>
-  <si>
-    <t>analytical</t>
-  </si>
-  <si>
-    <t>SedTrace_name</t>
-  </si>
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>grid transformation function</t>
-  </si>
-  <si>
-    <t>porosity as a function of depth</t>
-  </si>
-  <si>
-    <t>porosity at burial depth</t>
-  </si>
-  <si>
-    <t>bioburbation coefficient as a function of depth</t>
-  </si>
-  <si>
-    <t>bioirrigation coefficient as a function of depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -411,17 +420,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -429,12 +438,13 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,18 +731,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.20703125" style="1"/>
+    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -743,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>39</v>
@@ -752,10 +762,10 @@
         <v>40</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -774,7 +784,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -785,25 +795,25 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83984375" customWidth="1"/>
-    <col min="3" max="3" width="5.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.84375" customWidth="1"/>
+    <col min="3" max="3" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -818,21 +828,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D18" s="4"/>
     </row>
   </sheetData>
@@ -849,18 +859,18 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.05078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.05078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -868,13 +878,13 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>55</v>
@@ -886,11 +896,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
     </row>
@@ -901,31 +911,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.89453125" customWidth="1"/>
-    <col min="4" max="4" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.05078125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.921875" customWidth="1"/>
+    <col min="4" max="4" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -936,104 +946,107 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D7" s="3"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D8" s="3"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D9" s="3"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D11" s="3"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D12" s="3"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D22" s="5"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D23" s="5"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D25" s="5"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D26" s="5"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D27" s="5"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D30" s="5"/>
     </row>
   </sheetData>
@@ -1046,23 +1059,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I3" sqref="I1:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.20703125" style="3"/>
+    <col min="1" max="1" width="9.23046875" style="3"/>
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.765625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.89453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.9453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.20703125" style="3"/>
+    <col min="5" max="5" width="11.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1105,7 @@
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1122,7 +1135,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1152,7 +1165,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1182,7 +1195,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1212,7 +1225,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1242,7 +1255,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1272,7 +1285,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1283,16 +1296,16 @@
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1302,7 +1315,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1319,14 +1332,14 @@
         <v>0.8</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1343,14 +1356,14 @@
         <v>0.8</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1380,7 +1393,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1397,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1410,7 +1423,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1430,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1440,7 +1453,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1451,16 +1464,16 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1470,7 +1483,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1481,7 +1494,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="9">
         <v>5.0000000000000001E-3</v>
@@ -1490,7 +1503,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1514,11 +1527,11 @@
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1533,12 +1546,12 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1554,9 +1567,9 @@
         <v>1.3846153846153846</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1572,9 +1585,9 @@
         <v>1.1749783166920582</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1590,9 +1603,9 @@
         <v>0.99708125450302965</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1608,9 +1621,9 @@
         <v>0.8461186167930711</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1626,9 +1639,9 @@
         <v>0.71801240916985321</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1644,9 +1657,9 @@
         <v>0.60930206414306931</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1662,9 +1675,9 @@
         <v>0.51705095988275884</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1680,9 +1693,9 @@
         <v>0.43876709246287449</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1698,9 +1711,9 @@
         <v>0.37233575868803664</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1716,9 +1729,9 @@
         <v>0.31596243104654931</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1734,9 +1747,9 @@
         <v>0.26812428165539248</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1752,9 +1765,9 @@
         <v>0.22752904570046467</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1770,9 +1783,9 @@
         <v>0.19308011313910395</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1788,9 +1801,9 @@
         <v>0.16384690567764743</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1806,9 +1819,9 @@
         <v>0.13903973880934556</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1824,9 +1837,9 @@
         <v>0.11798848985408932</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -1842,9 +1855,9 @@
         <v>0.10012449575396369</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1860,9 +1873,9 @@
         <v>8.4965191624901876E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1878,9 +1891,9 @@
         <v>7.2101075101499448E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1896,9 +1909,9 @@
         <v>6.1184644339323191E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1914,9 +1927,9 @@
         <v>5.192101085399238E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1932,9 +1945,9 @@
         <v>4.4059933619125705E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1950,9 +1963,9 @@
         <v>3.738905923809633E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -1968,9 +1981,9 @@
         <v>3.1728185584534163E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -1986,9 +1999,9 @@
         <v>2.6924393953751076E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -2004,9 +2017,9 @@
         <v>2.28479182285844E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2022,9 +2035,9 @@
         <v>1.938863947232327E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2040,9 +2053,9 @@
         <v>1.6453111256211912E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2058,9 +2071,9 @@
         <v>1.3962035365901303E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2076,9 +2089,9 @@
         <v>1.1848119697426777E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2094,9 +2107,9 @@
         <v>1.0054260477479503E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2112,9 +2125,9 @@
         <v>8.5319997037978067E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2130,9 +2143,9 @@
         <v>7.2402161361006332E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -2148,9 +2161,9 @@
         <v>6.1440144769482532E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -2166,9 +2179,9 @@
         <v>5.2137827356739923E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -2184,9 +2197,9 @@
         <v>4.4243923117046899E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -2202,9 +2215,9 @@
         <v>3.7545191889053796E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -2220,9 +2233,9 @@
         <v>3.1860679041880524E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -2238,9 +2251,9 @@
         <v>2.7036827298935078E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -2256,9 +2269,9 @@
         <v>2.2943328653841993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -2274,9 +2287,9 @@
         <v>1.9469604325169517E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -2292,9 +2305,9 @@
         <v>1.6521817662023615E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2310,9 +2323,9 @@
         <v>1.4020339309323848E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -2328,9 +2341,9 @@
         <v>1.1897596158587261E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -2346,9 +2359,9 @@
         <v>1.0096245977349104E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -2364,9 +2377,9 @@
         <v>8.5676284079927738E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -2382,9 +2395,9 @@
         <v>7.270450492403522E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2400,9 +2413,9 @@
         <v>6.1696712141691109E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -2418,9 +2431,9 @@
         <v>5.2355549261656861E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -2436,9 +2449,9 @@
         <v>4.4428680935130322E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -2454,9 +2467,9 @@
         <v>3.7701976533005739E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -2472,9 +2485,9 @@
         <v>3.1993725777516114E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2490,9 +2503,9 @@
         <v>2.7149730153558409E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2508,9 +2521,9 @@
         <v>2.3039137502673976E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2535,25 +2548,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2564,56 +2577,57 @@
         <v>55</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>58</v>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" s="15"/>
     </row>
   </sheetData>
@@ -2624,20 +2638,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
-        <v>86</v>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
